--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrodrigues\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marco\Mestrado Eng Software\Semestre 2\Projeto\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +354,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -468,6 +483,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,7 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,43 +838,43 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -859,43 +882,43 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="22"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -905,13 +928,13 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -919,61 +942,61 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
       <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="17"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="17"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="17"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="17"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="17"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -983,50 +1006,50 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1034,31 +1057,31 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="17"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="18"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1068,30 +1091,30 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -1099,53 +1122,53 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="17"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="17"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="17"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="18"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1155,31 +1178,31 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="22"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="22"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1189,13 +1212,13 @@
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -1203,51 +1226,51 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="17"/>
       <c r="F50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="17"/>
       <c r="F51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="17"/>
       <c r="F52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="17"/>
       <c r="F53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -1256,13 +1279,13 @@
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -1270,21 +1293,21 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="22"/>
       <c r="F57" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -1319,57 +1342,57 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="22"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1405,93 +1428,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="230.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,8 +374,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +399,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,10 +468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -488,42 +501,46 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,43 +855,43 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -882,43 +899,43 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="24"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -928,13 +945,13 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -942,61 +959,61 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="20"/>
       <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="20"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="20"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="20"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="20"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1006,50 +1023,50 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1057,31 +1074,31 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="20"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1091,30 +1108,30 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -1122,53 +1139,53 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="20"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="20"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="20"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1178,31 +1195,31 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="24"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="24"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1212,13 +1229,13 @@
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -1226,51 +1243,51 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="20"/>
       <c r="F50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="20"/>
       <c r="F51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="20"/>
       <c r="F52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="20"/>
       <c r="F53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -1279,13 +1296,13 @@
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -1293,21 +1310,21 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="24"/>
       <c r="F57" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="22"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -1342,60 +1359,72 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="25"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="18"/>
+      <c r="D70" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="D14:D21"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="B38:B43"/>
@@ -1408,18 +1437,6 @@
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="D45:D47"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="D14:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1431,22 +1448,23 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
+      <c r="A1" s="16"/>
       <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1454,7 +1472,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1462,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1470,7 +1488,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1478,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -1486,7 +1504,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1494,7 +1512,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1502,7 +1520,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1510,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1518,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">

--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>Ver Posições dos Eixos</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>***Nota:</t>
-  </si>
-  <si>
-    <t>Alterar Idioma (PT/EN)</t>
   </si>
   <si>
     <t>Iluminação da Câmara (On/Off)</t>
@@ -472,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -505,13 +502,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,20 +535,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +825,8 @@
   <dimension ref="B1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,13 +859,13 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -870,28 +874,28 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -899,13 +903,13 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -914,28 +918,28 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -945,16 +949,16 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -964,7 +968,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1009,11 +1013,11 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="21"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1023,50 +1027,50 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1074,19 +1078,19 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1094,11 +1098,11 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1108,13 +1112,13 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="7"/>
@@ -1127,11 +1131,11 @@
       <c r="D35" s="20"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -1139,13 +1143,13 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1175,17 +1179,17 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="20"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="D43" s="21"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1195,13 +1199,13 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
@@ -1211,15 +1215,15 @@
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="25"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="25"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1228,110 +1232,110 @@
       <c r="D48" s="4"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="20"/>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="20"/>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="20"/>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="20"/>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="21"/>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="F57" s="7" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="24"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>40</v>
       </c>
@@ -1342,12 +1346,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>1</v>
       </c>
@@ -1358,14 +1362,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1374,45 +1378,53 @@
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="23"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
-        <v>77</v>
+      <c r="B69" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="19"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="B30:B32"/>
@@ -1425,18 +1437,6 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="D14:D21"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,39 +1492,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="8" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="9" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,17 +1554,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Especificação" sheetId="1" r:id="rId1"/>
-    <sheet name="Sugestões de Melhoria" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sugestões de Melhoria" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>Ver Posições dos Eixos</t>
   </si>
@@ -315,6 +316,12 @@
   </si>
   <si>
     <t>Editar código G</t>
+  </si>
+  <si>
+    <t>Procedimento de Ajuste da Mesa</t>
+  </si>
+  <si>
+    <t>Detalhes                                                Implementado?</t>
   </si>
 </sst>
 </file>
@@ -469,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -505,6 +512,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,6 +528,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,23 +551,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,6 +570,2431 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2705099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238874" y="200022"/>
+          <a:ext cx="171451" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2700336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2881312</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6234111" y="381000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2700336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2881312</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6234111" y="561975"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2700336</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2881312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6234111" y="762000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2700336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2881312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6234111" y="952500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="2095500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="2286000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="2476500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3057525"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="5334000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="5524500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="5905500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="6105525"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="6296025"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643187</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2824163</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6176962" y="6477000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="7620000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="7810500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="8001000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="8201025"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="9525000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="1171576"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="1362076"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="1543051"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="1743076"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="1924051"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2838450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="2886076"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="3648075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="3838575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4019550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4219575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagem 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4419600"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4600575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagem 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4781550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4991100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814637</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="5172075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagem 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="5743575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="6705600"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagem 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="6886575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagem 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="7067550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagem 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="7258050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="7458075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagem 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="8410575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagem 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="8591550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagem 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="8782050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagem 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="8982075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagem 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="9172575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662238</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2814638</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagem 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196013" y="9363075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652712</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2805112</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagem 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="9734550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652712</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2805112</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagem 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="9925050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652712</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2805112</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagem 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="10125075"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652712</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2805112</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagem 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="10325100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652712</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2805112</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagem 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="10496550"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagem 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="2667000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagem 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3238500"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagem 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3429000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,8 +3263,8 @@
   <dimension ref="B1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,43 +3297,43 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -903,43 +3341,43 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="28"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -949,13 +3387,13 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -963,61 +3401,61 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="23"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="23"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="23"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="23"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="23"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="24"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1027,50 +3465,50 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1078,31 +3516,31 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="23"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="24"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1112,30 +3550,30 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -1143,53 +3581,53 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="23"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="23"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="23"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="24"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1199,31 +3637,31 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="28"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="28"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1233,13 +3671,13 @@
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -1247,51 +3685,51 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="20"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="20"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -1300,13 +3738,13 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -1314,21 +3752,21 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -1363,68 +3801,58 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="27"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="21"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="28"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="29"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="29"/>
+      <c r="D70" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D45:D47"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="B30:B32"/>
@@ -1437,6 +3865,16 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="D14:D21"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1445,9 +3883,527 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="24"/>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="D12:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>Ver Posições dos Eixos</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>Detalhes                                                Implementado?</t>
+  </si>
+  <si>
+    <t>Polimero extrudido por trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibra extrudida por trabalho </t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -521,6 +527,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,18 +540,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,8 +551,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,50 +1467,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2676526</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2828926</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210301" y="1171576"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2676526</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -1722,138 +1687,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2662237</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2814637</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Imagem 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6196012" y="3648075"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2662237</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2814637</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagem 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6196012" y="3838575"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2662237</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2814637</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagem 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6196012" y="4019550"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2662237</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -1986,50 +1819,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2662237</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2814637</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagem 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6196012" y="4781550"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2662237</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -2985,6 +2774,226 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6205537" y="3429000"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2690811</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2871787</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagem 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6224586" y="1133475"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662237</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2843213</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagem 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="4772025"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagem 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3609975"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagem 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3790950"/>
+          <a:ext cx="180976" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2671762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852738</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagem 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="3981450"/>
           <a:ext cx="180976" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3297,43 +3306,43 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -3341,43 +3350,43 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="30"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -3387,13 +3396,13 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -3401,61 +3410,61 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="25"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="25"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="25"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="25"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="26"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3465,50 +3474,50 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -3516,31 +3525,31 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="25"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="26"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3550,30 +3559,30 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -3581,53 +3590,53 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="25"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="25"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="25"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="26"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3637,31 +3646,31 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="28"/>
+      <c r="D46" s="30"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="30"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -3671,13 +3680,13 @@
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -3685,51 +3694,51 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="23"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="24"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -3738,13 +3747,13 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -3752,21 +3761,21 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="28"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="24"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="28"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -3801,36 +3810,36 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="26"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="24"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="27"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
@@ -3853,6 +3862,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="B30:B32"/>
@@ -3865,16 +3884,6 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="D14:D21"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3886,8 +3895,8 @@
   <dimension ref="B1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,409 +3909,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28"/>
+        <v>95</v>
+      </c>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="D11" s="30"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="23"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="28"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
@@ -4327,36 +4336,36 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
@@ -4365,12 +4374,24 @@
       <c r="C56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="22" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B52:B55"/>
@@ -4381,18 +4402,6 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="D12:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EspecificacaoHMI_Fibr3D.XLSX
+++ b/EspecificacaoHMI_Fibr3D.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Especificação" sheetId="1" r:id="rId1"/>
@@ -542,6 +542,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,18 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3474,7 +3474,7 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3485,35 +3485,35 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="25"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3537,7 +3537,7 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3825,21 +3825,21 @@
       <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="25"/>
       <c r="C66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="26"/>
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="33"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
@@ -3862,16 +3862,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D45:D47"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="B30:B32"/>
@@ -3884,6 +3874,16 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="D14:D21"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3894,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -4065,7 +4065,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4076,42 +4076,42 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4123,7 +4123,7 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4351,21 +4351,21 @@
       <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="25"/>
       <c r="C54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="26"/>
       <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
@@ -4380,18 +4380,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="B52:B55"/>
@@ -4402,6 +4390,18 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="D12:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4412,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
